--- a/Cheng_Vogel/presentation/_Analyses_results_Cheng_Vogel_2016_rep_mean_all_Cheng_Vogel_rep_PC07__all_high_BP_uniProtAccess_Qian,2001_nboot10000_sb.off_.xlsx
+++ b/Cheng_Vogel/presentation/_Analyses_results_Cheng_Vogel_2016_rep_mean_all_Cheng_Vogel_rep_PC07__all_high_BP_uniProtAccess_Qian,2001_nboot10000_sb.off_.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>edges</t>
   </si>
@@ -65,87 +65,87 @@
   </si>
   <si>
     <t>Rho [FDR]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Time lag</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Cluster ID</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>HIST1H2BJ:
 histone cluster 1, H2bj 
 [Source:HGNC Symbol;Acc:4761]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>NMT1:
 N-myristoyltransferase 1 
 [Source:HGNC Symbol;Acc:7857]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>RER1:
 retention in endoplasmic reticulum sorting receptor 1 
 [Source:HGNC Symbol;Acc:30309]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>KPNA2:
 karyopherin alpha 2 (RAG cohort 1, importin alpha 1) 
 [Source:HGNC Symbol;Acc:6395]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>KRT17:
 keratin 17 
 [Source:HGNC Symbol;Acc:6427]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CMAS:
 cytidine monophosphate N-acetylneuraminic acid synthetase 
 [Source:HGNC Symbol;Acc:18290]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>PDIA6:
 protein disulfide isomerase family A, member 6 
 [Source:HGNC Symbol;Acc:30168]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>MISP:
 mitotic spindle positioning 
 [Source:HGNC Symbol;Acc:27000]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>KRT18:
 keratin 18 
 [Source:HGNC Symbol;Acc:6430]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>KRT18:
 keratin 18 
 [Source:HGNC Symbol;Acc:6430]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>KRT17:
 keratin 17 
 [Source:HGNC Symbol;Acc:6427]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>MISP/Caprice:
 mitotic spindle positioning 
 [Source:HGNC Symbol;Acc:27000]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -243,7 +243,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -436,7 +436,7 @@
     <rPh sb="1591" eb="1596">
       <t>カイセk</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>＜塩基（アミノ酸）配列より、Soloと結合することを予測できないか＞</t>
@@ -446,7 +446,7 @@
     <rPh sb="26" eb="28">
       <t>ヨソk</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -568,7 +568,7 @@
       </rPr>
       <t>[http://movie.biologists.com/video/10.1242/jcs.157503/video-1]</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -606,7 +606,7 @@
       </rPr>
       <t xml:space="preserve">&gt; The mitotic phenotypes observed upon PTPRF depletion resembled loss of the retraction fiber component mitotic spindle positioning (MISP) (Maier et al.,2013; Zhu et al., 2013). </t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -691,7 +691,7 @@
 &gt; Caprice effectively forms F-actin bundles, possibly due to its multiple actin binding domains within a molecule.
 &gt; Caprice expression was found to be enriched in a subset of epithelial cells, such as HeLa, A549, and DU145 cells (Fig. 7A).</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -825,7 +825,7 @@
       </rPr>
       <t xml:space="preserve"> (Abiko et al., 2015).</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>HeLa cell
@@ -855,33 +855,33 @@
     <rPh sb="102" eb="103">
       <t>マジッt</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CMAS:
 cytidine monophosphate N-acetylneuraminic acid synthetase 
 [Source:HGNC Symbol;Acc:18290]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CMAS cytidine monophosphate N-acetylneuraminic acid synthetase [ Homo sapiens (human) ]
 Gene ID: 55907, updated on 21-Dec-2017
 Summary
 This gene encodes an enzyme that converts N-acetylneuraminic acid (NeuNAc) to cytidine 5'-monophosphate N-acetylneuraminic acid (CMP-NeuNAc). This process is important in the formation of sialylated glycoprotein and glycolipids. This modification plays a role in cell-cell communications and immune responses. Alternative splicing results in multiple transcript variants. [provided by RefSeq, Feb 2016]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>PDIA6:
 protein disulfide isomerase family A, member 6 
 [Source:HGNC Symbol;Acc:30168]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>PDIA6 protein disulfide isomerase family A member 6 [ Homo sapiens (human) ]
 Gene ID: 10130, updated on 21-Dec-2017
 Summary
 This gene encodes a member of the disulfide isomerase (PDI) family of endoplasmic reticulum (ER) proteins that catalyze protein folding and thiol-disulfide interchange reactions. The encoded protein has an N-terminal ER-signal sequence, two catalytically active thioredoxin (TRX) domains, a TRX-like domain, and a C-terminal ER-retention sequence. This protein inhibits the aggregation of misfolded proteins and exhibits both isomerase and chaperone activity. Alternative splicing results in multiple transcript variants encoding different isoforms. [provided by RefSeq, Dec 2016]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>MISP, KRT18 まとめ：
@@ -908,7 +908,7 @@
     <rPh sb="361" eb="363">
       <t>ホウコk</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -943,7 +943,7 @@
       </rPr>
       <t>&gt; Fig2C:  KRT18 ない。17もあまりない。</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>KRT18 が apoptosis 初期の細胞質及び inclusion body  に Casp-3, DEDD と共局在することは報告されているが、 KRT18 が apoptosis に必要な因子としての機能があるのか、あるいは apoptosis 初期に分解されるべき構造としてそれらの apoptosis 関連タンパクが共局在しているのかは不明。前者の場合、Cheng, 2016 の結果における、 KRT18 abundance とapoptotic cells の、８時間後まで大きくなり、その後小さくなるということの関連性についての議論ができる。</t>
@@ -1007,7 +1007,7 @@
     <rPh sb="274" eb="276">
       <t>ギロn</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>MISP と apoptosis を直接関連付けた文献は見当たらないので、actin filament reinforce と apoptosis の関連性を調査する。</t>
@@ -1029,7 +1029,7 @@
     <rPh sb="79" eb="81">
       <t>チョ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1053,7 +1053,7 @@
     <rPh sb="16" eb="18">
       <t>ギロn</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1076,7 +1076,7 @@
 &gt; The involvement of ROCK in apoptotic blebbing can be shown with
 the use of the specific inhibitor Y27632 whereas paradoxically the Rho inhibitor C3 transferase is unable to block blebbing [10,11]. Thus this phenomenon appears dependent on ROCK but without the involvement of Rho.</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1242,7 +1242,7 @@
     <rPh sb="2125" eb="2127">
       <t>ホ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1417,7 +1417,7 @@
     <rPh sb="66" eb="67">
       <t>ベt</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1503,7 +1503,7 @@
     <rPh sb="99" eb="100">
       <t>ノb</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1582,7 +1582,7 @@
     <rPh sb="118" eb="120">
       <t>ブンケn</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1631,14 +1631,14 @@
       </rPr>
       <t>. They are expressed in single layer epithelial tissues of the body. Mutations in this gene have been linked to cryptogenic cirrhosis. Two transcript variants encoding the same protein have been found for this gene. [provided by RefSeq, Jul 2008]</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>MISP mitotic spindle positioning [ Homo sapiens (human) ]
 Gene ID: 126353, updated on 5-Nov-2017
 Summary
 The protein encoded by this gene is an actin-bundling protein involved in determining cell morphology and mitotic progression. The encoded protein is required for the proper positioning of the mitotic spindle. Two transcript variants, one protein-coding and the other non-protein coding, have been found for this gene. [provided by RefSeq, Feb 2016]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1801,7 +1801,7 @@
     <rPh sb="507" eb="508">
       <t>ミラr</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1830,11 +1830,11 @@
       </rPr>
       <t xml:space="preserve"> keratin 17, expressed in nail bed, hair follicle, sebaceous glands, and other epidermal appendages. Mutations in this gene lead to Jackson-Lawler type pachyonychia congenita and steatocystoma multiplex. [provided by RefSeq, Aug 2008]</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/gene/</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1880,7 +1880,7 @@
     <rPh sb="48" eb="50">
       <t>キョクザ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1909,7 +1909,7 @@
       <t xml:space="preserve">
 &gt; A similar role of K17 in modulating the TNFα pathway, thereby participating in the involution phase of hair-follicle recycling, was revealed with K17-null mice (Tong and Coulombe, 2006). Interestingly, keratins seem to antagonize death-receptor pathways through multiple mechanisms. First, K8-null hepatocytes display an increased targeting of Fas to the cell surface (Gilbert et al., 2001). Second, K18 and K17 bind and sequester TRADD, an adaptor protein that is recruited to the TNFRI and is essential for downstream signal relay (Inada et al., 2001).</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1937,14 +1937,99 @@
       </rPr>
       <t>&gt; Jasplakinolide is a potent F-actin stabilizing drug, …,  jasplakinolide resulted in the appearance of distinct morphological and biochemical hallmarks of apoptosis including DNA fragmentation, chromatin condensation and caspase activation, suggesting that actin stabilization elicits an apoptotic response[63].</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hobbs, Jacob, Coulombe - 2016 - 
+Keratins Are Going Nuclear
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Previously thought to reside exclusively in the cytoplasm, the cytoskeletal protein keratin 17 (K17) has been recently identified inside the nucleus of tumor epithelial cells with a direct impact on cell proliferation and gene expression. We comment on fundamental questions raised by this new finding and the associated significance.
+&gt; independently made by two laboratories, that the type I IF protein keratin 17 (K17) impacts the nuclear localiza-tion and function of the transcriptional 
+regulator autoimmune regulator (AIRE) (Hobbs et al., 2015) or the cell-cycle inhib-itor p27KIP1 (CDKN1B) (Escobar-Hoyos et al., 2015)?
+&gt; a simple explanation is that K17 would itself be present and function inside
+the nucleus,
+&gt; nucleocytoplasmic shuttling proteins (Kumeta et al., 2013), have separately
+converged in demonstrating the presence of endogenous K17 and other keratin proteins inside the nucleus of tumor epithe-lial cells.
+&gt; In cervical tumor epithelia, K17 has been shown to promote the nuclear export and deactivation of CDKN1B/p27KIP1, a key negative regulator of the G1 to S transition (Esco-bar-Hoyos et al., 2015). Furthermore, in cervical lesions in situ, K17 acts to sup-press inflammation and immune cell recruitment, in addition to impacting p63 expression and the balance between epithelial cell proliferation and differentia-tion (Hobbs et al., 2016), a notion that could be related to nuclear K17’s role in cell-cycle progression (Escobar-Hoyos
+et al., 2015). </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hobbs et al. - 2015 - 
+Keratin-dependent regulation of Aire and gene expression in skin tumor keratinocytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&gt; real-time PCR (qRT-PCR) assay to quantitate mRNA levels for inflammation- and disease-relevant genes (Supplementary Table 6) in A431 cells (derived from a human epidermoid carcinoma and K17-expressing1).Twenty-two genes were consistently upregulated (&gt;2-fold) in A431 cells following treatment with TPA
+(Supplemental Fig. 2a), which elicits a robust inflammatory response in keratinocytes12.
+&gt; In concluding, the findings reported here establish a novel role for K17 in regulating gene expression at the transcriptional level in skin keratinocytes, which involves a nuclear- localized form of this keratin protein (Fig. 4g). They provide </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>a mechanistic basis for a positive feedback loop whereby K17 upregulation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, an early event when inflammation sets in, would promote the maintenance of a specific type of pro-inflammatory and immune response in skin. </t>
+    </r>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2050,6 +2135,12 @@
       <name val="Yu Gothic (本文)"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic (本文)"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2114,8 +2205,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2167,10 +2258,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2185,7 +2276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2883,7 +2974,7 @@
     </row>
     <row r="11" spans="1:25" ht="21" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2892,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="39" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -2996,20 +3087,26 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="406" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="409" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>45</v>
       </c>
+      <c r="D10" s="18" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" ht="220" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="320" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>38</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="409" x14ac:dyDescent="0.3">
@@ -3036,7 +3133,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>